--- a/labs/lab5/lab5work.xlsx
+++ b/labs/lab5/lab5work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duckha/Documents/SeattleU/data-structures/labs/lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E27117-86B1-C044-8986-116E9A232E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47261E6B-1737-E340-AF5F-6D895E84D4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5300" yWindow="500" windowWidth="23840" windowHeight="21420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>n</t>
   </si>
@@ -146,6 +146,24 @@
       <t xml:space="preserve"> portions of the spreadsheet. All pink portions will be automatically updated when you fill in the info for Trial 1, 2, and 3. 
 Be sure to also answer the questions about ranking and Big-O</t>
     </r>
+  </si>
+  <si>
+    <t>Insertion Sort O(n^2)</t>
+  </si>
+  <si>
+    <t>Heap sort O(n log(n))</t>
+  </si>
+  <si>
+    <t>Merge Sort O(n log(n))</t>
+  </si>
+  <si>
+    <t>Quick Sort O(n^2)</t>
+  </si>
+  <si>
+    <t>Intro Sort O(n log(n))</t>
+  </si>
+  <si>
+    <t>graph does not quite correspond with Big-O of the sorting algorithms.</t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="B32" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1968,6 +1986,9 @@
       <c r="J31" s="2">
         <v>1</v>
       </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2">
@@ -1992,6 +2013,9 @@
       <c r="J32" s="2">
         <v>2</v>
       </c>
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2">
@@ -2016,6 +2040,9 @@
       <c r="J33" s="2">
         <v>3</v>
       </c>
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2">
@@ -2040,6 +2067,9 @@
       <c r="J34" s="2">
         <v>4</v>
       </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2">
@@ -2065,6 +2095,9 @@
       </c>
       <c r="J35" s="2">
         <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2191,7 +2224,9 @@
         <v>1.690418</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="I41" s="15"/>
+      <c r="I41" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
     </row>
